--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3917821.242951149</v>
+        <v>3922760.505800181</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>237.9332843063845</v>
+        <v>52.82290122762615</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>59.66385641544528</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.3764625499721</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>186.250717003031</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>175.5940282806604</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.44625475318942</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>73.31370764132012</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385013</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.02845249187299</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>134.4442626460252</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>197.4852479619983</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>218.7387205629884</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051994</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.64843562452401</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>25.37433807241459</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.695321531225</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="F2" t="n">
-        <v>865.7094167416178</v>
+        <v>525.2632558086686</v>
       </c>
       <c r="G2" t="n">
-        <v>447.7456086398047</v>
+        <v>107.2994477068555</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521274</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.7744035713887</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>74.81188663097703</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>624.9609401989841</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2277.810876486087</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1946.747989142516</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1593.979333872402</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.513575611322</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>830.3742436355105</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990287</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284807</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1540.921096014693</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.631866751719</v>
+        <v>1540.921096014693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1269.492534775907</v>
+        <v>1540.921096014693</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641982</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.6075462588844</v>
+        <v>416.5712828402494</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6713633309776</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1482.725914505505</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1482.725914505505</v>
+        <v>1363.113985056867</v>
       </c>
       <c r="T13" t="n">
-        <v>1258.940499295011</v>
+        <v>1363.113985056867</v>
       </c>
       <c r="U13" t="n">
-        <v>1258.940499295011</v>
+        <v>1363.113985056867</v>
       </c>
       <c r="V13" t="n">
-        <v>1004.256011089124</v>
+        <v>1108.42949685098</v>
       </c>
       <c r="W13" t="n">
-        <v>1004.256011089124</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="X13" t="n">
-        <v>1004.256011089124</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="Y13" t="n">
-        <v>1004.256011089124</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,46 +5281,46 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1299.436222111439</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.751733905552</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W16" t="n">
-        <v>755.3345638685918</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646855</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5703,16 +5703,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5731,22 +5731,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,37 +6451,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028587</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1440.685527502828</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1440.685527502828</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.685527502828</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.685527502828</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1186.001039296941</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>896.58386925998</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6885,10 +6885,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,7 +6952,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7125,13 +7125,13 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.685527502827</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.685527502827</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1186.00103929694</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7830,22 +7830,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>223.6742649934479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>93.9358999119198</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>63.47654733757801</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>88.75210443657909</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>33.39892276083961</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>52.31591677926878</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>154.4576421095227</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>52.31591677926856</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326513</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652326.8865326514</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="7">
@@ -26319,43 +26319,43 @@
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="F2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="G2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="H2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="I2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="M2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147613</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147614</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147613</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007521</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007541</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
@@ -26441,13 +26441,13 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61280.36886941243</v>
+        <v>-61280.36886941256</v>
       </c>
       <c r="C6" t="n">
         <v>528687.510345132</v>
       </c>
       <c r="D6" t="n">
-        <v>528687.510345132</v>
+        <v>528687.5103451314</v>
       </c>
       <c r="E6" t="n">
-        <v>97365.07517341951</v>
+        <v>98242.20730716952</v>
       </c>
       <c r="F6" t="n">
-        <v>622525.1116503155</v>
+        <v>623402.243784065</v>
       </c>
       <c r="G6" t="n">
-        <v>622525.1116503153</v>
+        <v>623402.2437840649</v>
       </c>
       <c r="H6" t="n">
-        <v>622525.1116503157</v>
+        <v>623402.2437840649</v>
       </c>
       <c r="I6" t="n">
-        <v>622525.1116503155</v>
+        <v>623402.2437840652</v>
       </c>
       <c r="J6" t="n">
-        <v>446101.8924577227</v>
+        <v>446979.0245914722</v>
       </c>
       <c r="K6" t="n">
-        <v>622525.1116503156</v>
+        <v>623402.2437840652</v>
       </c>
       <c r="L6" t="n">
-        <v>622525.1116503157</v>
+        <v>623402.2437840649</v>
       </c>
       <c r="M6" t="n">
-        <v>487724.0964164784</v>
+        <v>488601.228550228</v>
       </c>
       <c r="N6" t="n">
-        <v>622525.1116503156</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="O6" t="n">
-        <v>622525.1116503157</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="P6" t="n">
-        <v>622525.1116503156</v>
+        <v>623402.2437840652</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85.98948845797261</v>
+        <v>271.099871536731</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634987</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0.4077074708228565</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>64.97345050525834</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>28.9878097027507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>207.1398133828201</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2848459252796</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>75.30176537689223</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047513</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>374.2497035813871</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
